--- a/2_featureExtraction/semantic associations/generated data/word_associations.xlsx
+++ b/2_featureExtraction/semantic associations/generated data/word_associations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>overweight_1_1</t>
+          <t>Run_1_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>obesity</t>
+          <t>Gesundheitsrisiken</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>overweight_1_1</t>
+          <t>Run_1_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>health risks</t>
+          <t>Fettleibigkeit</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>overweight_1_1</t>
+          <t>Run_1_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>weight loss</t>
+          <t>Diät</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>overweight_1_1</t>
+          <t>Run_1_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>Bewegungsmangel</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -588,7 +588,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>overweight_1_1</t>
+          <t>Run_1_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>Selbstbewusstseinsverlust</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -618,7 +618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>overweight_1_2</t>
+          <t>Run_1_2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>body image</t>
+          <t>Mangelernährung</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -648,7 +648,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>overweight_1_2</t>
+          <t>Run_1_2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>self-esteem</t>
+          <t>Krankheit</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -678,7 +678,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>overweight_1_2</t>
+          <t>Run_1_2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>Schwäche</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>overweight_1_2</t>
+          <t>Run_1_2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>appearance</t>
+          <t>Energieverlust</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -738,7 +738,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>overweight_1_2</t>
+          <t>Run_1_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>societal pressure</t>
+          <t>Gesundheitsprobleme</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -768,7 +768,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>overweight_1_3</t>
+          <t>Run_1_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fast food</t>
+          <t>Gesundheit</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -798,7 +798,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>overweight_1_3</t>
+          <t>Run_1_3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>junk food</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -828,7 +828,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>overweight_1_3</t>
+          <t>Run_1_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>unhealthy eating</t>
+          <t>Wohlbefinden</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -858,7 +858,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>overweight_1_3</t>
+          <t>Run_1_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>portion control</t>
+          <t>Ausgeglichenheit</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -888,7 +888,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>overweight_1_3</t>
+          <t>Run_1_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>nutrition</t>
+          <t>Attraktivität</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -918,7 +918,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>overweight_1_4</t>
+          <t>Run_1_4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gym</t>
+          <t>Kraft</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -948,7 +948,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>overweight_1_4</t>
+          <t>Run_1_4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fitness</t>
+          <t>Ausdauer</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -978,7 +978,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>overweight_1_4</t>
+          <t>Run_1_4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>workout</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1008,7 +1008,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>overweight_1_4</t>
+          <t>Run_1_4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>trainer</t>
+          <t>Attraktivität</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1038,7 +1038,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>overweight_1_4</t>
+          <t>Run_1_4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>Selbstbewusstsein</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1068,7 +1068,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>overweight_1_5</t>
+          <t>Run_2_1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>Gesundheitsrisiken</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1098,7 +1098,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>overweight_1_5</t>
+          <t>Run_2_1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>heart disease</t>
+          <t>Diät</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1128,7 +1128,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>overweight_1_5</t>
+          <t>Run_2_1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>high blood pressure</t>
+          <t>Übergewicht</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1158,7 +1158,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>overweight_1_5</t>
+          <t>Run_2_1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cholesterol</t>
+          <t>Fettleibigkeit</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1188,7 +1188,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>overweight_1_5</t>
+          <t>Run_2_1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>medical concerns</t>
+          <t>Gesundheitsprobleme</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1218,7 +1218,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>overweight_2_1</t>
+          <t>Run_2_2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>obesity</t>
+          <t>Mangelernährung</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1248,7 +1248,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>overweight_2_1</t>
+          <t>Run_2_2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>health risks</t>
+          <t>Schwäche</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1278,7 +1278,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>overweight_2_1</t>
+          <t>Run_2_2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>Gesundheitsprobleme</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1308,7 +1308,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>overweight_2_1</t>
+          <t>Run_2_2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>Krankheit</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1338,7 +1338,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>overweight_2_1</t>
+          <t>Run_2_2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>weight loss</t>
+          <t>Untergewicht</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1368,7 +1368,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>overweight_2_2</t>
+          <t>Run_2_3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>unhealthy</t>
+          <t>Gesundheit</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1398,7 +1398,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>overweight_2_2</t>
+          <t>Run_2_3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>eating habits</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1428,7 +1428,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>overweight_2_2</t>
+          <t>Run_2_3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>junk food</t>
+          <t>Wohlbefinden</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1458,7 +1458,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>overweight_2_2</t>
+          <t>Run_2_3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sedentary</t>
+          <t>Idealgewicht</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1488,7 +1488,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>overweight_2_2</t>
+          <t>Run_2_3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>normalgewichtig</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>Selbstbewusstsein</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1518,7 +1518,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>overweight_2_3</t>
+          <t>Run_2_4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>self-esteem</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1548,7 +1548,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>overweight_2_3</t>
+          <t>Run_2_4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>body image</t>
+          <t>Kraft</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1578,7 +1578,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>overweight_2_3</t>
+          <t>Run_2_4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>Athletik</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1608,7 +1608,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>overweight_2_3</t>
+          <t>Run_2_4</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>mental health</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1638,7 +1638,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>overweight_2_3</t>
+          <t>Run_2_4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>muskulös</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>Attraktivität</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1668,7 +1668,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>overweight_2_4</t>
+          <t>Run_3_1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Gesundheitsprobleme</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1698,7 +1698,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>overweight_2_4</t>
+          <t>Run_3_1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1713,12 +1713,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>weight gain</t>
+          <t>Fettpolster</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1728,7 +1728,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>overweight_2_4</t>
+          <t>Run_3_1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>metabolism</t>
+          <t>Schwierigkeiten beim Gehen</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1758,7 +1758,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>overweight_2_4</t>
+          <t>Run_3_1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>nutrition</t>
+          <t>unattraktives Aussehen</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1788,7 +1788,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>overweight_2_4</t>
+          <t>Run_3_1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>übergewichtig</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>calories</t>
+          <t>Ernährungsgewohnheiten</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1818,7 +1818,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>overweight_2_5</t>
+          <t>Run_3_2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>discrimination</t>
+          <t>Mangelernährung</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1848,7 +1848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>overweight_2_5</t>
+          <t>Run_3_2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>stigma</t>
+          <t>Schwäche</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1878,7 +1878,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>overweight_2_5</t>
+          <t>Run_3_2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>social pressure</t>
+          <t>Krankheit</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1908,7 +1908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>overweight_2_5</t>
+          <t>Run_3_2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>media influence</t>
+          <t>unattraktives Aussehen</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1938,7 +1938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>overweight_2_5</t>
+          <t>Run_3_2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1953,15 +1953,4515 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>overweight</t>
+          <t>untergewichtig</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>Ernährungsmangel</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Run_3_3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Run_3_3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Run_3_3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Run_3_3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Energie</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Run_3_3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Run_3_4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Run_3_4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Kraft</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Run_3_4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Run_3_4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Run_3_4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Run_4_1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiko</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Run_4_1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Run_4_1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Run_4_1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Run_4_1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Ernährung</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Run_4_2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Run_4_2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Krankheit</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Run_4_2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Run_4_2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Erschöpfung</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Run_4_2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Untergewicht</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Run_4_3</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Run_4_3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Run_4_3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Run_4_3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Ausgeglichenheit</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Run_4_3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Idealgewicht</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Run_4_4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Kraft</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Run_4_4</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Fitnessstudio</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Run_4_4</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bodybuilding</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Run_4_4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Stärke</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Run_4_4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sportlichkeit</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Run_5_1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiken</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Run_5_1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Run_5_1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Run_5_1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Schwierigkeiten</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Run_5_1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Selbstbewusstseinsverlust</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Run_5_2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Run_5_2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Run_5_2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Run_5_2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Erschöpfung</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Run_5_2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>erhöhtes Krankheitsrisiko</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Run_5_3</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Run_5_3</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Run_5_3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ausgeglichenheit</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Run_5_3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Run_5_3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Selbstvertrauen</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Run_5_4</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Stärke</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Run_5_4</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Run_5_4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Run_5_4</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Selbstsicherheit</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Run_5_4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sportlichkeit</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Run_6_1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Run_6_1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Run_6_1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Run_6_1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Run_6_1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Ernährungsumstellung</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Run_6_2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Run_6_2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Run_6_2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Abmagerung</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Run_6_2</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiken</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Run_6_2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Ernährungszusatz</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Run_6_3</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Run_6_3</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Run_6_3</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Run_6_3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Selbstbewusstsein</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Run_6_3</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Idealgewicht</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Run_6_4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Fitnessstudio</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Run_6_4</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Muskelaufbau</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Run_6_4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Krafttraining</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Run_6_4</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sportlichkeit</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Run_6_4</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Run_7_1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Run_7_1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Run_7_1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Run_7_1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ernährungsumstellung</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Run_7_1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Selbstbewusstseinsverlust</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Run_7_2</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Run_7_2</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Krankheit</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Run_7_2</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Run_7_2</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Energieverlust</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Run_7_2</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiken</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Run_7_3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Run_7_3</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Run_7_3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Ausgeglichenheit</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Run_7_3</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Selbstsicherheit</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Run_7_3</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Run_7_4</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Kraft</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Run_7_4</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Run_7_4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Run_7_4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Run_7_4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Selbstbewusstsein</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Run_8_1</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiken</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Run_8_1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Run_8_1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Run_8_1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Run_8_1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Ernährungsgewohnheiten</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Run_8_2</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Run_8_2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Schlankheit</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Run_8_2</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Energieverlust</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Run_8_2</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Run_8_2</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Untergewicht</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Run_8_3</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Run_8_3</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Ausgewogenheit</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Run_8_3</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Fitnesstraining</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Run_8_3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Ernährungsbalance</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Run_8_3</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Run_8_4</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Kraft</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Run_8_4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Fitnessstudio</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Run_8_4</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Muskelaufbau</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Run_8_4</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Run_8_4</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Run_9_1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Run_9_1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Run_9_1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Run_9_1</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Schwierigkeiten beim Sport</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Run_9_1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Selbstbewusstseinsverlust</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Run_9_2</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Run_9_2</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Run_9_2</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiken</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Run_9_2</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Energieverlust</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Run_9_2</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Medizinische Behandlung</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Run_9_3</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Run_9_3</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Run_9_3</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Run_9_3</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Selbstvertrauen</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Run_9_3</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Run_9_4</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Stärke</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Run_9_4</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Fitnessstudio</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Run_9_4</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Körperbau</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Run_9_4</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Selbstbewusstsein</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Run_9_4</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Attraktivität</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Run_10_1</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Gesundheitsrisiko</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Run_10_1</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Diät</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Run_10_1</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Fettleibigkeit</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Run_10_1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Übergewicht</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Run_10_1</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Ernährungsumstellung</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Run_10_2</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Mangelernährung</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Run_10_2</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Schwäche</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Run_10_2</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Gesundheitsprobleme</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Run_10_2</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Untergewicht</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Run_10_2</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Ernährungsberatung</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Run_10_3</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Gesundheit</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Run_10_3</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Run_10_3</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Wohlbefinden</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Run_10_3</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Idealgewicht</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Run_10_3</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Ausgeglichenheit</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Run_10_4</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Kraft</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Run_10_4</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Fitnessstudio</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Run_10_4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Bodybuilding</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Run_10_4</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Trainingsplan</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Run_10_4</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Durchsetzungsvermögen</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
         <v>5</v>
       </c>
     </row>

--- a/2_featureExtraction/semantic associations/generated data/word_associations.xlsx
+++ b/2_featureExtraction/semantic associations/generated data/word_associations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>fettleibig</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>krankhaft</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bewegungsmangel</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Selbstbewusstseinsverlust</t>
+          <t>problematisch</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Krankheit</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energieverlust</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>fragil</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ausgeglichenheit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>ausgewogen</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ausdauer</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Selbstbewusstsein</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>unflexibel</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>träge</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>unschön</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>ungelenk</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Krankheit</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Untergewicht</t>
+          <t>mangelhaft</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>wohlproportioniert</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Idealgewicht</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Selbstbewusstsein</t>
+          <t>leistungsfähig</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Athletik</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>leistungsfähig</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fettpolster</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Schwierigkeiten beim Gehen</t>
+          <t>unflexibel</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>unattraktives Aussehen</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ernährungsgewohnheiten</t>
+          <t>träge</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Krankheit</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>unattraktives Aussehen</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ernährungsmangel</t>
+          <t>fragil</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Energie</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>selbstbewusst</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>selbstbewusst</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiko</t>
+          <t>gesundheitsschädlich</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>dick</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ernährung</t>
+          <t>krankheitsanfällig</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Krankheit</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Erschöpfung</t>
+          <t>abgemagert</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Untergewicht</t>
+          <t>gesundheitsschädlich</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ausgeglichenheit</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Idealgewicht</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fitnessstudio</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Bodybuilding</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Stärke</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sportlichkeit</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>krankhaft</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>dick</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Schwierigkeiten</t>
+          <t>fettleibig</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Selbstbewusstseinsverlust</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krankhaft</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Erschöpfung</t>
+          <t>dünn</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>erhöhtes Krankheitsrisiko</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ausgeglichenheit</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Selbstvertrauen</t>
+          <t>wohlproportioniert</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Stärke</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Selbstsicherheit</t>
+          <t>trainiert</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sportlichkeit</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>unförmig</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>träge</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ernährungsumstellung</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Abmagerung</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ernährungszusatz</t>
+          <t>anfällig</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Selbstbewusstsein</t>
+          <t>wohlgeformt</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Idealgewicht</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Fitnessstudio</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Muskelaufbau</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Krafttraining</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sportlichkeit</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>selbstbewusst</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>gesundheitsschädlich</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ernährungsumstellung</t>
+          <t>unflexibel</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Selbstbewusstseinsverlust</t>
+          <t>übermüdet</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Krankheit</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Energieverlust</t>
+          <t>gesundheitsschädlich</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>hungrig</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ausgeglichenheit</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Selbstsicherheit</t>
+          <t>selbstbewusst</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>perfekt</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>sportlich</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Selbstbewusstsein</t>
+          <t>selbstsicher</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>unförmig</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>übermäßig</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ernährungsgewohnheiten</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Schlankheit</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Energieverlust</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Untergewicht</t>
+          <t>fragil</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ausgewogenheit</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Fitnesstraining</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ernährungsbalance</t>
+          <t>perfekt</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>ideal</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Fitnessstudio</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Muskelaufbau</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>krankhaft</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>unförmig</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Schwierigkeiten beim Sport</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Selbstbewusstseinsverlust</t>
+          <t>anfällig</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krankhaft</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiken</t>
+          <t>anfällig</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Energieverlust</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Medizinische Behandlung</t>
+          <t>fragil</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Selbstvertrauen</t>
+          <t>kräftig</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>ausgewogen</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Stärke</t>
+          <t>kräftig</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Fitnessstudio</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Körperbau</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Selbstbewusstsein</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Attraktivität</t>
+          <t>männlich</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Gesundheitsrisiko</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Diät</t>
+          <t>ungesund</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Fettleibigkeit</t>
+          <t>dick</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Übergewicht</t>
+          <t>unförmig</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Ernährungsumstellung</t>
+          <t>träge</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mangelernährung</t>
+          <t>krank</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Schwäche</t>
+          <t>schwach</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Gesundheitsprobleme</t>
+          <t>mager</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Untergewicht</t>
+          <t>unattraktiv</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ernährungsberatung</t>
+          <t>anfällig</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Wohlbefinden</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Idealgewicht</t>
+          <t>wohlproportioniert</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ausgeglichenheit</t>
+          <t>leistungsfähig</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Kraft</t>
+          <t>attraktiv</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Fitnessstudio</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Bodybuilding</t>
+          <t>stark</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Trainingsplan</t>
+          <t>gesund</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -6458,10 +6458,6010 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Durchsetzungsvermögen</t>
+          <t>selbstbewusst</t>
         </is>
       </c>
       <c r="F201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Run_11_1</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>gesundheitsschädlich</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Run_11_1</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>korpulent</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Run_11_1</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>fettleibig</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Run_11_1</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Run_11_1</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>krankhaft</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Run_11_2</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Run_11_2</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Run_11_2</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>abgemagert</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Run_11_2</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Run_11_2</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Run_11_3</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Run_11_3</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Run_11_3</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Run_11_3</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>wohlproportioniert</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Run_11_3</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Run_11_4</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Run_11_4</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Run_11_4</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Run_11_4</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Run_11_4</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>männlich</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Run_12_1</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Run_12_1</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Run_12_1</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>dick</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Run_12_1</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Run_12_1</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>problematisch</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Run_12_2</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Run_12_2</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Run_12_2</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Run_12_2</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Run_12_2</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>problematisch</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Run_12_3</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Run_12_3</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Run_12_3</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Run_12_3</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Run_12_3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>wünschenswert</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Run_12_4</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Run_12_4</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Run_12_4</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Run_12_4</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Run_12_4</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>beeindruckend</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Run_13_1</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Run_13_1</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Run_13_1</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Run_13_1</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>unschön</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Run_13_1</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>bedenklich</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Run_13_2</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Run_13_2</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Run_13_2</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>fragil</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Run_13_2</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Run_13_2</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>besorgt</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Run_13_3</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Run_13_3</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Run_13_3</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Run_13_3</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>aktiv</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Run_13_3</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>ausgeglichen</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Run_13_4</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Run_13_4</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>kräftig</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Run_13_4</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Run_13_4</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Run_13_4</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>beeindruckend</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Run_14_1</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Run_14_1</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Run_14_1</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>unförmig</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Run_14_1</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Run_14_1</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>problematisch</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Run_14_2</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Run_14_2</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Run_14_2</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Run_14_2</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>anfällig</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Run_14_2</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>fragil</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Run_14_3</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Run_14_3</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Run_14_3</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Run_14_3</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>ausgeglichen</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Run_14_3</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Run_14_4</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Run_14_4</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Run_14_4</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Run_14_4</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Run_14_4</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Run_15_1</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>gesundheitsschädlich</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Run_15_1</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Run_15_1</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>unflexibel</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Run_15_1</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Run_15_1</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>unsportlich</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Run_15_2</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>krankhaft</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Run_15_2</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Run_15_2</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>mangelernährt</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Run_15_2</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>energielos</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Run_15_2</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>fragil</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Run_15_3</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Run_15_3</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Run_15_3</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Run_15_3</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>energiegeladen</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Run_15_3</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Run_15_4</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Run_15_4</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Run_15_4</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Run_15_4</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Run_15_4</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Run_16_1</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>ungleichmäßig</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Run_16_1</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Run_16_1</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Run_16_1</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>unsportlich</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Run_16_1</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>unflexibel</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Run_16_2</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Run_16_2</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Run_16_2</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>dünn</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Run_16_2</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Run_16_2</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>zerbrechlich</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Run_16_3</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Run_16_3</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Run_16_3</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Run_16_3</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Run_16_3</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>ausgeglichen</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Run_16_4</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Run_16_4</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Run_16_4</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>fitt</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Run_16_4</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Run_16_4</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>maskulin</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Run_17_1</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>gesundheitsschädlich</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Run_17_1</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Run_17_1</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>unflexibel</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Run_17_1</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Run_17_1</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>riskant</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Run_17_2</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Run_17_2</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Run_17_2</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>mangelernährt</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Run_17_2</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Run_17_2</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>anfällig</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Run_17_3</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Run_17_3</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Run_17_3</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Run_17_3</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>energiegeladen</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Run_17_3</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>ideal</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Run_17_4</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Run_17_4</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Run_17_4</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Run_17_4</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Run_17_4</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Run_18_1</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Run_18_1</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>dick</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Run_18_1</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>unflexibel</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Run_18_1</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Run_18_1</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Run_18_2</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Run_18_2</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Run_18_2</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Run_18_2</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Run_18_2</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>fragil</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Run_18_3</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Run_18_3</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Run_18_3</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Run_18_3</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>leistungsfähig</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Run_18_3</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>ausgewogen</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Run_18_4</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Run_18_4</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Run_18_4</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Run_18_4</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>leistungsfähig</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Run_18_4</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>männlich</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Run_19_1</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>krankhaft</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Run_19_1</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Run_19_1</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>unförmig</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Run_19_1</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>unsportlich</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Run_19_1</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>auffällig</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Run_19_2</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>krankhaft</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Run_19_2</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Run_19_2</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Run_19_2</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>ausgezehrt</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Run_19_2</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>fragil</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Run_19_3</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Run_19_3</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Run_19_3</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>wohlproportioniert</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Run_19_3</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Run_19_3</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>ideal</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Run_19_4</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Run_19_4</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Run_19_4</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>sportlich</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Run_19_4</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Run_19_4</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>männlich</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Run_20_1</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Run_20_1</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>ungesund</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Run_20_1</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>unförmig</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Run_20_1</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>träge</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Run_20_1</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>übergewichtig</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>unschön</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Run_20_2</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>krank</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Run_20_2</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>schwach</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Run_20_2</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>mager</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Run_20_2</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>ärmlich</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Run_20_2</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>untergewichtig</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>unattraktiv</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Run_20_3</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>gesund</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Run_20_3</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Run_20_3</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>wohlgeformt</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Run_20_3</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Run_20_3</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>normalgewichtig</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Run_20_4</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>attraktiv</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Run_20_4</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Run_20_4</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>trainiert</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Run_20_4</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>selbstbewusst</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Run_20_4</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>muskulös</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>männlich</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
         <v>5</v>
       </c>
     </row>
